--- a/target/test-classes/excelSheet/testdata.xlsx
+++ b/target/test-classes/excelSheet/testdata.xlsx
@@ -21,6 +21,83 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Seol</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Ren</t>
+  </si>
+  <si>
+    <t>Gorya</t>
+  </si>
+  <si>
+    <t>Lim</t>
+  </si>
+  <si>
+    <t>Suga</t>
+  </si>
+  <si>
+    <t>Ronny</t>
+  </si>
+  <si>
+    <t>Reyan</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>kun</t>
+  </si>
+  <si>
+    <t>sine</t>
+  </si>
+  <si>
+    <t>lukiya</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>chalung</t>
+  </si>
+  <si>
+    <t>dtek</t>
+  </si>
+  <si>
+    <t>lanson</t>
+  </si>
+  <si>
+    <t>klson</t>
+  </si>
+  <si>
+    <t>fcvhj</t>
+  </si>
+  <si>
+    <t>gf78989</t>
+  </si>
+  <si>
+    <t>fdvhbjb</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +413,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>55576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>4357676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>887565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>54676786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>4667787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>65768</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>